--- a/src/main/resources/testdata2.xlsx
+++ b/src/main/resources/testdata2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\IdeaProjects\untitled\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69337FD7-5CD3-4A82-A19C-9EDA745A86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F8368B-5C2E-410C-A229-A95A9724C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D7560FB-3623-45BD-9D92-68B41EC0D11F}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>95</v>
+        <v>6.95</v>
       </c>
     </row>
   </sheetData>
@@ -656,18 +656,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,6 +689,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{009D16D5-BB9A-409C-9694-0890A8879122}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29805772-DED8-4CCD-8CD0-CF203086E605}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -702,12 +710,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{009D16D5-BB9A-409C-9694-0890A8879122}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/testdata2.xlsx
+++ b/src/main/resources/testdata2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\IdeaProjects\untitled\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F8368B-5C2E-410C-A229-A95A9724C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8ABA730-6920-47D5-817A-EA068F47CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D7560FB-3623-45BD-9D92-68B41EC0D11F}"/>
   </bookViews>
@@ -656,18 +656,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,25 +689,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29805772-DED8-4CCD-8CD0-CF203086E605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="79e7eff0-9394-4e2c-bdb5-552a06f36b3c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{009D16D5-BB9A-409C-9694-0890A8879122}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29805772-DED8-4CCD-8CD0-CF203086E605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="79e7eff0-9394-4e2c-bdb5-552a06f36b3c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>